--- a/Practices/02.CleanArchitecture/Program_CheckList.xlsx
+++ b/Practices/02.CleanArchitecture/Program_CheckList.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Repositories\ServicesDevelopment\Practices\02.CleanArchitecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCD917C-4CC3-43B9-BA77-424D55DC57E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455414FE-A8D2-4843-898D-E23FD12B705D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -490,7 +490,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
